--- a/ANS-170-RC/ig/StructureDefinition-tde-auditevent.xlsx
+++ b/ANS-170-RC/ig/StructureDefinition-tde-auditevent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-30T15:44:16+00:00</t>
+    <t>2026-02-03T13:33:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
